--- a/archivos/resumen_por_region.xlsx
+++ b/archivos/resumen_por_region.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>region</t>
   </si>
@@ -29,12 +29,12 @@
     <t>pcent_votos</t>
   </si>
   <si>
+    <t>encuentros_poblacion_10000hab</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
-    <t>encuentros_10000hab</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -123,6 +123,51 @@
   </si>
   <si>
     <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>#A97A82</t>
+  </si>
+  <si>
+    <t>#544076</t>
+  </si>
+  <si>
+    <t>#FC835E</t>
+  </si>
+  <si>
+    <t>#804A62</t>
+  </si>
+  <si>
+    <t>#A92C48</t>
+  </si>
+  <si>
+    <t>#FDB56E</t>
+  </si>
+  <si>
+    <t>#EE2B2A</t>
+  </si>
+  <si>
+    <t>#DD7368</t>
+  </si>
+  <si>
+    <t>#785E79</t>
+  </si>
+  <si>
+    <t>#76809D</t>
+  </si>
+  <si>
+    <t>#FEE67E</t>
+  </si>
+  <si>
+    <t>#717290</t>
+  </si>
+  <si>
+    <t>#FBCA70</t>
+  </si>
+  <si>
+    <t>#0054A4</t>
+  </si>
+  <si>
+    <t>#F47B4D</t>
   </si>
 </sst>
 </file>
@@ -217,10 +262,10 @@
         <v>0.56</v>
       </c>
       <c r="G2" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="H2" t="n">
         <v>24.651808842115802</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -243,10 +288,10 @@
         <v>2.31</v>
       </c>
       <c r="G3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="H3" t="n">
         <v>10.59429945194874</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -269,10 +314,10 @@
         <v>5.99</v>
       </c>
       <c r="G4" t="n">
-        <v>416.0</v>
-      </c>
-      <c r="H4" t="n">
         <v>9.203688381439095</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -295,10 +340,10 @@
         <v>0.98</v>
       </c>
       <c r="G5" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="H5" t="n">
         <v>14.743198990657914</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -321,10 +366,10 @@
         <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="H6" t="n">
         <v>12.96242761090336</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -347,10 +392,10 @@
         <v>12.870000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>756.0</v>
-      </c>
-      <c r="H7" t="n">
         <v>7.546020426059923</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -373,10 +418,10 @@
         <v>3.95</v>
       </c>
       <c r="G8" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="H8" t="n">
         <v>11.014957245976431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -399,10 +444,10 @@
         <v>4.75</v>
       </c>
       <c r="G9" t="n">
-        <v>270.0</v>
-      </c>
-      <c r="H9" t="n">
         <v>10.069936940090015</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -425,10 +470,10 @@
         <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="H10" t="n">
         <v>11.946265361887711</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -451,10 +496,10 @@
         <v>0.87</v>
       </c>
       <c r="G11" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="H11" t="n">
         <v>18.19626539531188</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -477,10 +522,10 @@
         <v>6.78</v>
       </c>
       <c r="G12" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="H12" t="n">
         <v>10.491351263317767</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -503,10 +548,10 @@
         <v>39.53</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0</v>
-      </c>
-      <c r="H13" t="n">
         <v>12.686916961536694</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -529,10 +574,10 @@
         <v>5.65</v>
       </c>
       <c r="G14" t="n">
-        <v>396.0</v>
-      </c>
-      <c r="H14" t="n">
         <v>9.14678501310079</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -555,10 +600,10 @@
         <v>1.14</v>
       </c>
       <c r="G15" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H15" t="n">
         <v>12.251989411658649</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -581,10 +626,10 @@
         <v>10.78</v>
       </c>
       <c r="G16" t="n">
-        <v>418.0</v>
-      </c>
-      <c r="H16" t="n">
         <v>10.22566093726461</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
